--- a/doc/temperature.xlsx
+++ b/doc/temperature.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ic\rasberrypipico\greenhouseControl\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04BBCFD-66F4-4A62-94F9-5707217BD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE82113-8177-4A7C-B772-E54186C74F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1809DD22-5388-4787-AB89-E051CA9E44D7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1809DD22-5388-4787-AB89-E051CA9E44D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Greenhouse" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,32 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>2024/09/22 18:31:00 Sunday</t>
-  </si>
-  <si>
-    <t>2024/09/22 18:28:07 Sunday</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>2024/09/22 18:46:08 Sunday</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>2024/09/22 19:01:14 Sunday</t>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -90,9 +91,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -130,70 +141,566 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Humidity %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$2:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Greenhouse!$D$2:$D$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Greenhouse!$D$7:$D$47,Greenhouse!$D$52:$D$86)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>2024/09/22 18:28:07 Sunday</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2024/09/22 18:31:00 Sunday</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2024/09/22 18:46:08 Sunday</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2024/09/22 19:01:14 Sunday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Greenhouse!$A$2:$A$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Greenhouse!$A$7:$A$47,Greenhouse!$A$52:$A$86)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>12.0625</c:v>
+                  <c:v>89.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.25</c:v>
+                  <c:v>89.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5625</c:v>
+                  <c:v>89.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>89.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88.77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>88.81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.93</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89.81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89.46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>89.39</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89.39</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89.23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>89.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>89.13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89.17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>89.36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>89.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.84</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.84</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89.57</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.57</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.07</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>88.45</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>86.95</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -201,7 +708,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F206-45E0-8144-6D9B1128DDF4}"/>
+              <c16:uniqueId val="{00000000-25A0-438A-8255-44F3FE64B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -214,56 +721,27 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="471118816"/>
-        <c:axId val="471108256"/>
+        <c:axId val="1321600112"/>
+        <c:axId val="1321602032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="471118816"/>
+        <c:axId val="1321600112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -277,8 +755,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -289,15 +768,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471108256"/>
-        <c:crossesAt val="9.5"/>
+        <c:crossAx val="1321602032"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471108256"/>
+        <c:axId val="1321602032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,9 +786,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -335,8 +814,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -347,14 +827,825 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471118816"/>
+        <c:crossAx val="1321600112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temp C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Greenhouse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Greenhouse!$D$2:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Greenhouse!$B$2:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="85"/>
+                <c:pt idx="0">
+                  <c:v>16.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.97</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.38</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.51</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AF4-4461-AC21-1EF7C10DAFDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1330549264"/>
+        <c:axId val="1330545904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1330549264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330545904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1330545904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330549264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -371,28 +1662,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -454,34 +1731,76 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="309">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -489,34 +1808,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -525,8 +1836,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -545,6 +1857,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -553,35 +1873,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -593,29 +1923,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -633,18 +1965,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -654,20 +1989,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -681,14 +2016,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -702,8 +2037,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -717,6 +2053,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -728,9 +2070,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -745,100 +2087,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -846,14 +2181,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -865,19 +2200,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -893,6 +2221,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -901,8 +2230,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -912,7 +2242,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -920,9 +2250,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -933,8 +2263,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -946,25 +2277,619 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F03B5A-E88C-AB7D-5E35-8CF9EC367778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCD36A1-EA36-8F20-52BE-3F030A4269D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -975,7 +2900,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1B6F9D-08BE-3BBE-968A-E74A5500BAB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D35D335-E205-AAAD-20AA-EE2AFC94E16F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1002,47 +2927,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC2A088-BB57-BDE2-9514-D6ECA20441E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1362,214 +3246,1342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E73C70-1E54-430B-AE7C-3D25D643141C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44DE0E9-F4A8-48A3-95F9-2DB997F7E292}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16.21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45581.4453587963</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>89.26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17.03</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45581.497858796298</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>15.5625</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45581.508344907408</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" si="0">D3 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17.66</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45581.517106481479</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17.72</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45581.527615740742</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>89.44</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17.84</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45581.53806712963</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45581.548518518517</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>89.26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18.21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45581.559016203704</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.04</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45581.569467592592</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18.47</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45581.579930555556</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.93</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18.62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45581.590381944443</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>88.52</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18.91</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45581.60087962963</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.63</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45581.611331018517</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45581.632210648146</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.62</v>
+      </c>
+      <c r="B16" s="1">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45581.64266203704</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>87.46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19.05</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45581.65315972222</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.41</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18.96</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45581.663622685184</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18.88</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45581.674074074072</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.07</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18.78</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45581.684525462966</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18.82</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45581.694976851853</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45581.705428240741</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>18.78</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45581.715879629628</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>18.78</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45581.726365740738</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>87.14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>18.77</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45581.736863425926</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18.21</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45581.893368055556</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>88.3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45581.903865740744</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45581.924768518518</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>88.66</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45581.935219907406</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.72</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17.66</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45581.945671296293</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>88.75</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45581.956122685187</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.77</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17.45</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45581.966574074075</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>88.79</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45581.977013888885</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88.81</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45581.987476851849</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>88.86</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45581.997928240744</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>15.5625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>15.5</v>
+        <v>88.93</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17.03</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45582.008379629631</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>89.04</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45582.018831018519</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16.89</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45582.029282407406</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>89.16</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45582.039837962962</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>89.26</v>
+      </c>
+      <c r="B40" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45582.05028935185</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="B41" s="1">
+        <v>16.75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45582.060729166667</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>89.36</v>
+      </c>
+      <c r="B42" s="1">
+        <v>16.71</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45582.071192129632</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>89.45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45582.081643518519</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45582.092094907406</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>89.58</v>
+      </c>
+      <c r="B45" s="1">
+        <v>16.63</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45582.102581018517</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>16.61</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45582.113032407404</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>89.64</v>
+      </c>
+      <c r="B47" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45582.123483796298</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>89.68</v>
+      </c>
+      <c r="B48" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45582.133946759262</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>89.78</v>
+      </c>
+      <c r="B49" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45582.144386574073</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>89.87</v>
+      </c>
+      <c r="B50" s="1">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45582.15483796296</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>89.94</v>
+      </c>
+      <c r="B51" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45582.165289351855</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>89.91</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45582.175740740742</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>89.91</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45582.186192129629</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>89.91</v>
+      </c>
+      <c r="B54" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45582.196643518517</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45582.207094907404</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16.55</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45582.217534722222</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45582.227986111109</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>89.81</v>
+      </c>
+      <c r="B58" s="1">
+        <v>16.47</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45582.238425925927</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>89.48</v>
+      </c>
+      <c r="B59" s="1">
+        <v>16.14</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45582.259328703702</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>89.46</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15.97</v>
+      </c>
+      <c r="C60" s="5">
+        <v>45582.269768518519</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>89.46</v>
+      </c>
+      <c r="B61" s="1">
+        <v>15.97</v>
+      </c>
+      <c r="C61" s="5">
+        <v>45582.269768518519</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>89.39</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15.78</v>
+      </c>
+      <c r="C62" s="5">
+        <v>45582.280231481483</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>89.39</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15.78</v>
+      </c>
+      <c r="C63" s="5">
+        <v>45582.280231481483</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>89.23</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="C64" s="5">
+        <v>45582.290682870371</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>89.23</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45582.290682870371</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>89.16</v>
+      </c>
+      <c r="B66" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45582.301134259258</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>89.16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45582.301134259258</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>89.13</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45582.311585648145</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D86" si="1">D67 + 1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>89.13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45582.311585648145</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>89.17</v>
+      </c>
+      <c r="B70" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45582.322025462963</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>89.17</v>
+      </c>
+      <c r="B71" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45582.322025462963</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>89.36</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45582.332488425927</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>89.36</v>
+      </c>
+      <c r="B73" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45582.332488425927</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>89.58</v>
+      </c>
+      <c r="B74" s="1">
+        <v>14.54</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45582.342939814815</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>89.58</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14.54</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45582.342939814815</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>89.84</v>
+      </c>
+      <c r="B76" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45582.363807870373</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>89.84</v>
+      </c>
+      <c r="B77" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45582.363807870373</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>89.57</v>
+      </c>
+      <c r="B78" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45582.374259259261</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>89.57</v>
+      </c>
+      <c r="B79" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45582.374259259261</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>90.02</v>
+      </c>
+      <c r="B80" s="1">
+        <v>14.51</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45582.384710648148</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45582.395162037035</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>89.07</v>
+      </c>
+      <c r="B82" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45582.405613425923</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>88.45</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45582.41609953704</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>87.44</v>
+      </c>
+      <c r="B84" s="1">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45582.436979166669</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>86.95</v>
+      </c>
+      <c r="B85" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45582.447453703702</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84.77</v>
+      </c>
+      <c r="B86" s="1">
+        <v>17.21</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45582.457939814813</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>88</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -1577,83 +4589,9 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId3" name="Control 1"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56CA18-A7F6-4AD7-94EB-D3E2896E4F11}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12.0625</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>10.5625</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>